--- a/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
@@ -647,79 +647,79 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
         <v>9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T2" t="n">
-        <v>8.5</v>
       </c>
       <c r="U2" t="n">
         <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -731,10 +731,10 @@
         <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.08</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.05</v>
+        <v>4.55</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
         <v>1.08</v>
       </c>
       <c r="M6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="N6" t="n">
         <v>1.26</v>
@@ -1168,7 +1168,7 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U6" t="n">
         <v>14</v>
@@ -1180,10 +1180,10 @@
         <v>16.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
         <v>37</v>
@@ -1192,7 +1192,7 @@
         <v>11.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>27</v>
@@ -1204,19 +1204,19 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1257,7 +1257,7 @@
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1385,7 +1385,7 @@
         <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
@@ -659,7 +659,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -668,10 +668,10 @@
         <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -1133,27 +1133,27 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="P6" t="n">
         <v>1.16</v>
@@ -1162,55 +1162,55 @@
         <v>4.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="T6" t="n">
         <v>17.5</v>
       </c>
       <c r="U6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V6" t="n">
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="n">
         <v>35</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
@@ -790,10 +790,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
         <v>1.07</v>
       </c>
       <c r="M6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="N6" t="n">
         <v>1.25</v>
@@ -1159,16 +1159,16 @@
         <v>1.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
         <v>13.5</v>
@@ -1177,28 +1177,28 @@
         <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X6" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB6" t="n">
         <v>12</v>
       </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
       <c r="AC6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE6" t="n">
         <v>32</v>
@@ -1207,7 +1207,7 @@
         <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
         <v>90</v>
@@ -1216,7 +1216,7 @@
         <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1257,13 +1257,13 @@
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1272,10 +1272,10 @@
         <v>3.25</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1406,19 +1406,19 @@
         <v>2.63</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
         <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
         <v>19</v>
@@ -1451,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-16.xlsx
@@ -894,7 +894,7 @@
         <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>5.5</v>
@@ -1136,30 +1136,30 @@
         <v>1.55</v>
       </c>
       <c r="H6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.55</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1180,10 +1180,10 @@
         <v>16</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
         <v>37</v>
@@ -1192,31 +1192,31 @@
         <v>11.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
         <v>16.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1254,28 +1254,28 @@
         <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1284,10 +1284,10 @@
         <v>2.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
         <v>11</v>
@@ -1308,7 +1308,7 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1323,10 +1323,10 @@
         <v>401</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG7" t="n">
         <v>8.5</v>
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>1.07</v>
@@ -1394,10 +1394,10 @@
         <v>2.75</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1412,25 +1412,25 @@
         <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
         <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>34</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
         <v>6.5</v>
@@ -1439,25 +1439,25 @@
         <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
